--- a/acervo separado/Acervo_Escultura.xlsx
+++ b/acervo separado/Acervo_Escultura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\acervo separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8563C5E3-5EF2-46EE-9D6B-A44F93B98772}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC0C6B9-9B41-476B-8143-1794E9CC7429}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9270" uniqueCount="2461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9271" uniqueCount="2461">
   <si>
     <t>Ordem de Registro</t>
   </si>
@@ -7804,8 +7804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M550" sqref="M550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36196,6 +36196,9 @@
       <c r="L550" t="s">
         <v>436</v>
       </c>
+      <c r="M550" t="s">
+        <v>355</v>
+      </c>
       <c r="O550" t="s">
         <v>73</v>
       </c>

--- a/acervo separado/Acervo_Escultura.xlsx
+++ b/acervo separado/Acervo_Escultura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\acervo separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC0C6B9-9B41-476B-8143-1794E9CC7429}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FC3BC2-F8E0-479D-8D3C-585967B03939}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9271" uniqueCount="2461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9265" uniqueCount="2458">
   <si>
     <t>Ordem de Registro</t>
   </si>
@@ -7143,15 +7143,6 @@
   </si>
   <si>
     <t>27,0 cm</t>
-  </si>
-  <si>
-    <t>58,5 (d) cm</t>
-  </si>
-  <si>
-    <t>29,5 (d) cm</t>
-  </si>
-  <si>
-    <t>45,2 (d) cm</t>
   </si>
   <si>
     <t>43,3 cm</t>
@@ -7804,8 +7795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M550" sqref="M550"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8231,7 +8222,7 @@
         <v>439</v>
       </c>
       <c r="T7" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -8284,7 +8275,7 @@
         <v>2062</v>
       </c>
       <c r="T8" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -8337,7 +8328,7 @@
         <v>1982</v>
       </c>
       <c r="T9" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -8390,7 +8381,7 @@
         <v>2065</v>
       </c>
       <c r="T10" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -8443,7 +8434,7 @@
         <v>2067</v>
       </c>
       <c r="T11" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -8496,7 +8487,7 @@
         <v>2068</v>
       </c>
       <c r="T12" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -8552,7 +8543,7 @@
         <v>1997</v>
       </c>
       <c r="T13" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -8605,7 +8596,7 @@
         <v>2069</v>
       </c>
       <c r="T14" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -8658,7 +8649,7 @@
         <v>2071</v>
       </c>
       <c r="T15" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -8979,7 +8970,7 @@
         <v>2082</v>
       </c>
       <c r="T21" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -9088,16 +9079,16 @@
         <v>2085</v>
       </c>
       <c r="T23" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
       <c r="V23" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
       <c r="W23" t="s">
-        <v>2437</v>
+        <v>2434</v>
       </c>
       <c r="X23" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
       <c r="Y23" t="s">
         <v>2029</v>
@@ -9433,7 +9424,7 @@
         <v>2080</v>
       </c>
       <c r="T29" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
@@ -9545,7 +9536,7 @@
         <v>2097</v>
       </c>
       <c r="T31" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
@@ -9601,7 +9592,7 @@
         <v>2099</v>
       </c>
       <c r="T32" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
@@ -9657,7 +9648,7 @@
         <v>2100</v>
       </c>
       <c r="T33" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -9766,7 +9757,7 @@
         <v>2102</v>
       </c>
       <c r="T35" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -10105,10 +10096,10 @@
         <v>801</v>
       </c>
       <c r="W41" t="s">
-        <v>2439</v>
+        <v>2436</v>
       </c>
       <c r="X41" t="s">
-        <v>2440</v>
+        <v>2437</v>
       </c>
       <c r="Y41" t="s">
         <v>2001</v>
@@ -10273,19 +10264,19 @@
         <v>2108</v>
       </c>
       <c r="T44" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
       <c r="V44" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
       <c r="W44" t="s">
         <v>1989</v>
       </c>
       <c r="X44" t="s">
-        <v>2442</v>
+        <v>2439</v>
       </c>
       <c r="Y44" t="s">
-        <v>2442</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
@@ -10447,7 +10438,7 @@
         <v>2054</v>
       </c>
       <c r="T47" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
@@ -10503,7 +10494,7 @@
         <v>2111</v>
       </c>
       <c r="T48" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
@@ -11089,19 +11080,19 @@
         <v>2085</v>
       </c>
       <c r="T59" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="V59" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="W59" t="s">
-        <v>2443</v>
+        <v>2440</v>
       </c>
       <c r="X59" t="s">
-        <v>2444</v>
+        <v>2441</v>
       </c>
       <c r="Y59" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
@@ -11313,7 +11304,7 @@
         <v>2126</v>
       </c>
       <c r="T63" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
@@ -11416,7 +11407,7 @@
         <v>2052</v>
       </c>
       <c r="T65" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -11469,7 +11460,7 @@
         <v>2130</v>
       </c>
       <c r="T66" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
@@ -11569,7 +11560,7 @@
         <v>2065</v>
       </c>
       <c r="T68" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
@@ -11669,7 +11660,7 @@
         <v>2136</v>
       </c>
       <c r="T70" t="s">
-        <v>2407</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
@@ -11719,7 +11710,7 @@
         <v>2138</v>
       </c>
       <c r="T71" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
@@ -11772,7 +11763,7 @@
         <v>2140</v>
       </c>
       <c r="T72" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
@@ -11822,7 +11813,7 @@
         <v>2142</v>
       </c>
       <c r="T73" t="s">
-        <v>2407</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
@@ -11872,7 +11863,7 @@
         <v>2144</v>
       </c>
       <c r="T74" t="s">
-        <v>2409</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
@@ -12025,7 +12016,7 @@
         <v>2149</v>
       </c>
       <c r="T77" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
@@ -12145,7 +12136,7 @@
         <v>354</v>
       </c>
       <c r="F80" t="s">
-        <v>2460</v>
+        <v>2457</v>
       </c>
       <c r="H80" t="s">
         <v>121</v>
@@ -12325,7 +12316,7 @@
         <v>2157</v>
       </c>
       <c r="T83" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
@@ -12375,7 +12366,7 @@
         <v>2159</v>
       </c>
       <c r="T84" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
@@ -12425,7 +12416,7 @@
         <v>2161</v>
       </c>
       <c r="T85" t="s">
-        <v>2410</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
@@ -12528,7 +12519,7 @@
         <v>2062</v>
       </c>
       <c r="T87" t="s">
-        <v>2407</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
@@ -12675,7 +12666,7 @@
         <v>1979</v>
       </c>
       <c r="T90" t="s">
-        <v>2411</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
@@ -12725,7 +12716,7 @@
         <v>1980</v>
       </c>
       <c r="T91" t="s">
-        <v>2412</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
@@ -12775,13 +12766,13 @@
         <v>1981</v>
       </c>
       <c r="T92" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="V92" t="s">
-        <v>2432</v>
+        <v>2429</v>
       </c>
       <c r="W92" t="s">
-        <v>2445</v>
+        <v>2442</v>
       </c>
       <c r="X92" t="s">
         <v>2160</v>
@@ -12887,16 +12878,16 @@
         <v>2150</v>
       </c>
       <c r="V94" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="W94" t="s">
-        <v>2446</v>
+        <v>2443</v>
       </c>
       <c r="X94" t="s">
-        <v>2447</v>
+        <v>2444</v>
       </c>
       <c r="Y94" t="s">
-        <v>2448</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
@@ -12946,7 +12937,7 @@
         <v>2171</v>
       </c>
       <c r="T95" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
@@ -13096,7 +13087,7 @@
         <v>2175</v>
       </c>
       <c r="T98" t="s">
-        <v>2413</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
@@ -13149,19 +13140,19 @@
         <v>1983</v>
       </c>
       <c r="T99" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
       <c r="V99" t="s">
-        <v>2433</v>
+        <v>2430</v>
       </c>
       <c r="W99" t="s">
-        <v>2449</v>
+        <v>2446</v>
       </c>
       <c r="X99" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
       <c r="Y99" t="s">
-        <v>2450</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
@@ -13870,7 +13861,7 @@
         <v>2127</v>
       </c>
       <c r="T113" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
@@ -14238,7 +14229,7 @@
         <v>2197</v>
       </c>
       <c r="T120" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
@@ -14391,7 +14382,7 @@
         <v>2172</v>
       </c>
       <c r="T123" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
@@ -14444,7 +14435,7 @@
         <v>2127</v>
       </c>
       <c r="T124" t="s">
-        <v>2416</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
@@ -14647,7 +14638,7 @@
         <v>2021</v>
       </c>
       <c r="T128" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
@@ -15365,7 +15356,7 @@
         <v>1985</v>
       </c>
       <c r="T142" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
@@ -15415,7 +15406,7 @@
         <v>1986</v>
       </c>
       <c r="T143" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
@@ -15630,7 +15621,7 @@
         <v>2209</v>
       </c>
       <c r="T147" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.25">
@@ -15683,7 +15674,7 @@
         <v>2198</v>
       </c>
       <c r="T148" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.25">
@@ -15833,7 +15824,7 @@
         <v>2178</v>
       </c>
       <c r="T151" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.25">
@@ -15933,7 +15924,7 @@
         <v>2214</v>
       </c>
       <c r="T153" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.25">
@@ -15983,7 +15974,7 @@
         <v>2216</v>
       </c>
       <c r="T154" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.25">
@@ -16083,7 +16074,7 @@
         <v>1993</v>
       </c>
       <c r="T156" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.25">
@@ -16236,7 +16227,7 @@
         <v>2216</v>
       </c>
       <c r="T159" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.25">
@@ -16286,7 +16277,7 @@
         <v>2054</v>
       </c>
       <c r="T160" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.25">
@@ -16336,7 +16327,7 @@
         <v>2022</v>
       </c>
       <c r="T161" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.25">
@@ -16436,7 +16427,7 @@
         <v>2187</v>
       </c>
       <c r="T163" t="s">
-        <v>2419</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.25">
@@ -16486,7 +16477,7 @@
         <v>2187</v>
       </c>
       <c r="T164" t="s">
-        <v>2419</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.25">
@@ -16536,7 +16527,7 @@
         <v>2187</v>
       </c>
       <c r="T165" t="s">
-        <v>2419</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.25">
@@ -16586,19 +16577,19 @@
         <v>2222</v>
       </c>
       <c r="T166" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
       <c r="V166" t="s">
-        <v>2433</v>
+        <v>2430</v>
       </c>
       <c r="W166" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="X166" t="s">
         <v>2025</v>
       </c>
       <c r="Y166" t="s">
-        <v>2452</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.25">
@@ -16648,7 +16639,7 @@
         <v>2224</v>
       </c>
       <c r="T167" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.25">
@@ -16698,7 +16689,7 @@
         <v>2224</v>
       </c>
       <c r="T168" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="169" spans="1:25" x14ac:dyDescent="0.25">
@@ -16798,7 +16789,7 @@
         <v>2105</v>
       </c>
       <c r="T170" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.25">
@@ -16848,7 +16839,7 @@
         <v>2100</v>
       </c>
       <c r="T171" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="172" spans="1:25" x14ac:dyDescent="0.25">
@@ -17010,7 +17001,7 @@
         <v>1995</v>
       </c>
       <c r="T174" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.25">
@@ -17060,7 +17051,7 @@
         <v>2230</v>
       </c>
       <c r="T175" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.25">
@@ -17410,7 +17401,7 @@
         <v>2237</v>
       </c>
       <c r="T182" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.25">
@@ -17460,7 +17451,7 @@
         <v>2105</v>
       </c>
       <c r="T183" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.25">
@@ -17510,7 +17501,7 @@
         <v>2239</v>
       </c>
       <c r="T184" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.25">
@@ -17560,7 +17551,7 @@
         <v>2073</v>
       </c>
       <c r="T185" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.25">
@@ -17663,7 +17654,7 @@
         <v>2105</v>
       </c>
       <c r="T187" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.25">
@@ -17716,7 +17707,7 @@
         <v>2241</v>
       </c>
       <c r="T188" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.25">
@@ -17769,7 +17760,7 @@
         <v>2087</v>
       </c>
       <c r="T189" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.25">
@@ -17822,7 +17813,7 @@
         <v>2021</v>
       </c>
       <c r="T190" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.25">
@@ -17972,7 +17963,7 @@
         <v>2021</v>
       </c>
       <c r="T193" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.25">
@@ -18022,7 +18013,7 @@
         <v>2022</v>
       </c>
       <c r="T194" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.25">
@@ -18172,7 +18163,7 @@
         <v>2239</v>
       </c>
       <c r="T197" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.25">
@@ -18272,7 +18263,7 @@
         <v>2246</v>
       </c>
       <c r="T199" t="s">
-        <v>2413</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.25">
@@ -18322,7 +18313,7 @@
         <v>2073</v>
       </c>
       <c r="T200" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.25">
@@ -18372,7 +18363,7 @@
         <v>2124</v>
       </c>
       <c r="T201" t="s">
-        <v>2410</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.25">
@@ -18472,7 +18463,7 @@
         <v>2127</v>
       </c>
       <c r="T203" t="s">
-        <v>2410</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.25">
@@ -18522,7 +18513,7 @@
         <v>2073</v>
       </c>
       <c r="T204" t="s">
-        <v>2410</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.25">
@@ -18572,7 +18563,7 @@
         <v>2043</v>
       </c>
       <c r="T205" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.25">
@@ -18625,7 +18616,7 @@
         <v>2021</v>
       </c>
       <c r="T206" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.25">
@@ -18675,7 +18666,7 @@
         <v>2082</v>
       </c>
       <c r="T207" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.25">
@@ -18825,7 +18816,7 @@
         <v>2102</v>
       </c>
       <c r="T210" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.25">
@@ -18875,7 +18866,7 @@
         <v>2197</v>
       </c>
       <c r="T211" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
@@ -19025,7 +19016,7 @@
         <v>2237</v>
       </c>
       <c r="T214" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
@@ -19075,7 +19066,7 @@
         <v>2224</v>
       </c>
       <c r="T215" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
@@ -19128,7 +19119,7 @@
         <v>2255</v>
       </c>
       <c r="T216" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
@@ -19181,7 +19172,7 @@
         <v>2239</v>
       </c>
       <c r="T217" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
@@ -19231,7 +19222,7 @@
         <v>2127</v>
       </c>
       <c r="T218" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
@@ -19281,7 +19272,7 @@
         <v>2258</v>
       </c>
       <c r="T219" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
@@ -19528,7 +19519,7 @@
         <v>2149</v>
       </c>
       <c r="T224" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.25">
@@ -19578,7 +19569,7 @@
         <v>2261</v>
       </c>
       <c r="T225" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.25">
@@ -19628,7 +19619,7 @@
         <v>2124</v>
       </c>
       <c r="T226" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.25">
@@ -19728,7 +19719,7 @@
         <v>2197</v>
       </c>
       <c r="T228" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.25">
@@ -19981,7 +19972,7 @@
         <v>2052</v>
       </c>
       <c r="T233" t="s">
-        <v>2412</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.25">
@@ -20252,7 +20243,7 @@
         <v>2155</v>
       </c>
       <c r="T238" t="s">
-        <v>2423</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.25">
@@ -20352,7 +20343,7 @@
         <v>2000</v>
       </c>
       <c r="T240" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="241" spans="1:25" x14ac:dyDescent="0.25">
@@ -20663,7 +20654,7 @@
         <v>417</v>
       </c>
       <c r="F247" t="s">
-        <v>2460</v>
+        <v>2457</v>
       </c>
       <c r="H247" t="s">
         <v>419</v>
@@ -20787,13 +20778,13 @@
         <v>2004</v>
       </c>
       <c r="V249" t="s">
-        <v>2434</v>
+        <v>2431</v>
       </c>
       <c r="W249" t="s">
-        <v>2453</v>
+        <v>2450</v>
       </c>
       <c r="X249" t="s">
-        <v>2454</v>
+        <v>2451</v>
       </c>
       <c r="Y249" t="s">
         <v>2314</v>
@@ -20849,7 +20840,7 @@
         <v>2149</v>
       </c>
       <c r="T250" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="251" spans="1:25" x14ac:dyDescent="0.25">
@@ -20902,7 +20893,7 @@
         <v>2235</v>
       </c>
       <c r="T251" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="252" spans="1:25" x14ac:dyDescent="0.25">
@@ -20922,7 +20913,7 @@
         <v>865</v>
       </c>
       <c r="F252" t="s">
-        <v>2460</v>
+        <v>2457</v>
       </c>
       <c r="H252" t="s">
         <v>64</v>
@@ -21052,7 +21043,7 @@
         <v>2022</v>
       </c>
       <c r="T254" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="255" spans="1:25" x14ac:dyDescent="0.25">
@@ -21314,7 +21305,7 @@
         <v>2276</v>
       </c>
       <c r="T259" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.25">
@@ -21461,7 +21452,7 @@
         <v>2278</v>
       </c>
       <c r="T262" t="s">
-        <v>2424</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="263" spans="1:20" x14ac:dyDescent="0.25">
@@ -21564,7 +21555,7 @@
         <v>2054</v>
       </c>
       <c r="T264" t="s">
-        <v>2425</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="265" spans="1:20" x14ac:dyDescent="0.25">
@@ -21717,7 +21708,7 @@
         <v>2277</v>
       </c>
       <c r="T267" t="s">
-        <v>2412</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="268" spans="1:20" x14ac:dyDescent="0.25">
@@ -21767,7 +21758,7 @@
         <v>2284</v>
       </c>
       <c r="T268" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.25">
@@ -21867,7 +21858,7 @@
         <v>2287</v>
       </c>
       <c r="T270" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="271" spans="1:20" x14ac:dyDescent="0.25">
@@ -21917,7 +21908,7 @@
         <v>2033</v>
       </c>
       <c r="T271" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="272" spans="1:20" x14ac:dyDescent="0.25">
@@ -22114,7 +22105,7 @@
         <v>2290</v>
       </c>
       <c r="T275" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="276" spans="1:21" x14ac:dyDescent="0.25">
@@ -22167,7 +22158,7 @@
         <v>2062</v>
       </c>
       <c r="T276" t="s">
-        <v>2419</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="277" spans="1:21" x14ac:dyDescent="0.25">
@@ -22217,7 +22208,7 @@
         <v>2292</v>
       </c>
       <c r="T277" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="278" spans="1:21" x14ac:dyDescent="0.25">
@@ -22314,7 +22305,7 @@
         <v>2028</v>
       </c>
       <c r="T279" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="280" spans="1:21" x14ac:dyDescent="0.25">
@@ -22364,7 +22355,7 @@
         <v>2293</v>
       </c>
       <c r="T280" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="281" spans="1:21" x14ac:dyDescent="0.25">
@@ -22514,7 +22505,7 @@
         <v>2297</v>
       </c>
       <c r="T283" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="284" spans="1:21" x14ac:dyDescent="0.25">
@@ -22564,7 +22555,7 @@
         <v>2299</v>
       </c>
       <c r="T284" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="285" spans="1:21" x14ac:dyDescent="0.25">
@@ -22723,7 +22714,7 @@
         <v>2078</v>
       </c>
       <c r="T287" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="288" spans="1:21" x14ac:dyDescent="0.25">
@@ -23111,7 +23102,7 @@
         <v>2264</v>
       </c>
       <c r="T295" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="296" spans="1:21" x14ac:dyDescent="0.25">
@@ -23161,7 +23152,7 @@
         <v>2127</v>
       </c>
       <c r="T296" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="297" spans="1:21" x14ac:dyDescent="0.25">
@@ -23211,7 +23202,7 @@
         <v>2021</v>
       </c>
       <c r="T297" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="298" spans="1:21" x14ac:dyDescent="0.25">
@@ -23261,7 +23252,7 @@
         <v>2021</v>
       </c>
       <c r="T298" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="299" spans="1:21" x14ac:dyDescent="0.25">
@@ -23311,7 +23302,7 @@
         <v>2021</v>
       </c>
       <c r="T299" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="300" spans="1:21" x14ac:dyDescent="0.25">
@@ -23361,7 +23352,7 @@
         <v>2021</v>
       </c>
       <c r="T300" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="301" spans="1:21" x14ac:dyDescent="0.25">
@@ -23414,7 +23405,7 @@
         <v>2021</v>
       </c>
       <c r="T301" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="302" spans="1:21" x14ac:dyDescent="0.25">
@@ -23464,7 +23455,7 @@
         <v>2021</v>
       </c>
       <c r="T302" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="303" spans="1:21" x14ac:dyDescent="0.25">
@@ -23514,7 +23505,7 @@
         <v>2021</v>
       </c>
       <c r="T303" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="304" spans="1:21" x14ac:dyDescent="0.25">
@@ -23614,7 +23605,7 @@
         <v>2307</v>
       </c>
       <c r="T305" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="306" spans="1:20" x14ac:dyDescent="0.25">
@@ -23664,7 +23655,7 @@
         <v>2277</v>
       </c>
       <c r="T306" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="307" spans="1:20" x14ac:dyDescent="0.25">
@@ -23714,7 +23705,7 @@
         <v>2282</v>
       </c>
       <c r="T307" t="s">
-        <v>2410</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="308" spans="1:20" x14ac:dyDescent="0.25">
@@ -23764,7 +23755,7 @@
         <v>2282</v>
       </c>
       <c r="T308" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="309" spans="1:20" x14ac:dyDescent="0.25">
@@ -23814,7 +23805,7 @@
         <v>2277</v>
       </c>
       <c r="T309" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="310" spans="1:20" x14ac:dyDescent="0.25">
@@ -23864,7 +23855,7 @@
         <v>2058</v>
       </c>
       <c r="T310" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="311" spans="1:20" x14ac:dyDescent="0.25">
@@ -23914,7 +23905,7 @@
         <v>2277</v>
       </c>
       <c r="T311" t="s">
-        <v>2413</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="312" spans="1:20" x14ac:dyDescent="0.25">
@@ -23967,7 +23958,7 @@
         <v>2277</v>
       </c>
       <c r="T312" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="313" spans="1:20" x14ac:dyDescent="0.25">
@@ -24017,7 +24008,7 @@
         <v>2033</v>
       </c>
       <c r="T313" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="314" spans="1:20" x14ac:dyDescent="0.25">
@@ -24067,7 +24058,7 @@
         <v>2277</v>
       </c>
       <c r="T314" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="315" spans="1:20" x14ac:dyDescent="0.25">
@@ -24117,7 +24108,7 @@
         <v>2277</v>
       </c>
       <c r="T315" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="316" spans="1:20" x14ac:dyDescent="0.25">
@@ -24170,7 +24161,7 @@
         <v>2299</v>
       </c>
       <c r="T316" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="317" spans="1:20" x14ac:dyDescent="0.25">
@@ -24276,7 +24267,7 @@
         <v>2085</v>
       </c>
       <c r="T318" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="319" spans="1:20" x14ac:dyDescent="0.25">
@@ -24329,7 +24320,7 @@
         <v>2314</v>
       </c>
       <c r="T319" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="320" spans="1:20" x14ac:dyDescent="0.25">
@@ -24382,7 +24373,7 @@
         <v>2026</v>
       </c>
       <c r="T320" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="321" spans="1:20" x14ac:dyDescent="0.25">
@@ -24435,7 +24426,7 @@
         <v>2316</v>
       </c>
       <c r="T321" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="322" spans="1:20" x14ac:dyDescent="0.25">
@@ -24488,7 +24479,7 @@
         <v>612</v>
       </c>
       <c r="T322" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="323" spans="1:20" x14ac:dyDescent="0.25">
@@ -24647,7 +24638,7 @@
         <v>2062</v>
       </c>
       <c r="T325" t="s">
-        <v>2407</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="326" spans="1:20" x14ac:dyDescent="0.25">
@@ -24697,7 +24688,7 @@
         <v>2127</v>
       </c>
       <c r="T326" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="327" spans="1:20" x14ac:dyDescent="0.25">
@@ -24803,7 +24794,7 @@
         <v>2023</v>
       </c>
       <c r="T328" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="329" spans="1:20" x14ac:dyDescent="0.25">
@@ -24953,7 +24944,7 @@
         <v>2125</v>
       </c>
       <c r="T331" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="332" spans="1:20" x14ac:dyDescent="0.25">
@@ -25053,7 +25044,7 @@
         <v>2054</v>
       </c>
       <c r="T333" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="334" spans="1:20" x14ac:dyDescent="0.25">
@@ -25403,7 +25394,7 @@
         <v>2277</v>
       </c>
       <c r="T340" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="341" spans="1:20" x14ac:dyDescent="0.25">
@@ -25453,7 +25444,7 @@
         <v>2327</v>
       </c>
       <c r="T341" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="342" spans="1:20" x14ac:dyDescent="0.25">
@@ -25503,7 +25494,7 @@
         <v>2277</v>
       </c>
       <c r="T342" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="343" spans="1:20" x14ac:dyDescent="0.25">
@@ -25553,7 +25544,7 @@
         <v>2328</v>
       </c>
       <c r="T343" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="344" spans="1:20" x14ac:dyDescent="0.25">
@@ -25606,7 +25597,7 @@
         <v>2033</v>
       </c>
       <c r="T344" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="345" spans="1:20" x14ac:dyDescent="0.25">
@@ -25656,7 +25647,7 @@
         <v>1993</v>
       </c>
       <c r="T345" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="346" spans="1:20" x14ac:dyDescent="0.25">
@@ -25706,7 +25697,7 @@
         <v>2329</v>
       </c>
       <c r="T346" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="347" spans="1:20" x14ac:dyDescent="0.25">
@@ -25756,7 +25747,7 @@
         <v>2012</v>
       </c>
       <c r="T347" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="348" spans="1:20" x14ac:dyDescent="0.25">
@@ -25806,7 +25797,7 @@
         <v>2331</v>
       </c>
       <c r="T348" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="349" spans="1:20" x14ac:dyDescent="0.25">
@@ -25956,7 +25947,7 @@
         <v>2277</v>
       </c>
       <c r="T351" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="352" spans="1:20" x14ac:dyDescent="0.25">
@@ -26056,7 +26047,7 @@
         <v>2335</v>
       </c>
       <c r="T353" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="354" spans="1:20" x14ac:dyDescent="0.25">
@@ -26356,7 +26347,7 @@
         <v>2124</v>
       </c>
       <c r="T359" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="360" spans="1:20" x14ac:dyDescent="0.25">
@@ -26506,7 +26497,7 @@
         <v>2338</v>
       </c>
       <c r="T362" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="363" spans="1:20" x14ac:dyDescent="0.25">
@@ -26556,7 +26547,7 @@
         <v>2339</v>
       </c>
       <c r="T363" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="364" spans="1:20" x14ac:dyDescent="0.25">
@@ -26606,7 +26597,7 @@
         <v>2237</v>
       </c>
       <c r="T364" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="365" spans="1:20" x14ac:dyDescent="0.25">
@@ -26656,7 +26647,7 @@
         <v>2246</v>
       </c>
       <c r="T365" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="366" spans="1:20" x14ac:dyDescent="0.25">
@@ -27424,7 +27415,7 @@
         <v>2337</v>
       </c>
       <c r="T380" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="381" spans="1:20" x14ac:dyDescent="0.25">
@@ -27830,16 +27821,16 @@
         <v>1970</v>
       </c>
       <c r="V388" t="s">
-        <v>2434</v>
+        <v>2431</v>
       </c>
       <c r="W388" t="s">
         <v>1969</v>
       </c>
       <c r="X388" t="s">
-        <v>2455</v>
+        <v>2452</v>
       </c>
       <c r="Y388" t="s">
-        <v>2441</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="389" spans="1:25" x14ac:dyDescent="0.25">
@@ -27892,7 +27883,7 @@
         <v>2088</v>
       </c>
       <c r="T389" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="390" spans="1:25" x14ac:dyDescent="0.25">
@@ -27942,7 +27933,7 @@
         <v>2006</v>
       </c>
       <c r="T390" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="391" spans="1:25" x14ac:dyDescent="0.25">
@@ -27995,7 +27986,7 @@
         <v>2345</v>
       </c>
       <c r="T391" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="392" spans="1:25" x14ac:dyDescent="0.25">
@@ -28522,7 +28513,7 @@
         <v>2105</v>
       </c>
       <c r="T401" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="402" spans="1:20" x14ac:dyDescent="0.25">
@@ -28884,7 +28875,7 @@
         <v>2056</v>
       </c>
       <c r="T408" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="409" spans="1:20" x14ac:dyDescent="0.25">
@@ -29246,7 +29237,7 @@
         <v>2299</v>
       </c>
       <c r="T415" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="416" spans="1:20" x14ac:dyDescent="0.25">
@@ -29355,7 +29346,7 @@
         <v>2345</v>
       </c>
       <c r="T417" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="418" spans="1:20" x14ac:dyDescent="0.25">
@@ -29514,7 +29505,7 @@
         <v>2130</v>
       </c>
       <c r="T420" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="421" spans="1:20" x14ac:dyDescent="0.25">
@@ -30229,7 +30220,7 @@
         <v>2355</v>
       </c>
       <c r="T434" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="435" spans="1:20" x14ac:dyDescent="0.25">
@@ -30332,7 +30323,7 @@
         <v>2356</v>
       </c>
       <c r="T436" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="437" spans="1:20" x14ac:dyDescent="0.25">
@@ -30382,7 +30373,7 @@
         <v>2006</v>
       </c>
       <c r="T437" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="438" spans="1:20" x14ac:dyDescent="0.25">
@@ -30962,7 +30953,7 @@
         <v>2358</v>
       </c>
       <c r="T448" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="449" spans="1:20" x14ac:dyDescent="0.25">
@@ -31112,7 +31103,7 @@
         <v>2138</v>
       </c>
       <c r="T451" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="452" spans="1:20" x14ac:dyDescent="0.25">
@@ -31265,7 +31256,7 @@
         <v>2255</v>
       </c>
       <c r="T454" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="455" spans="1:20" x14ac:dyDescent="0.25">
@@ -31365,7 +31356,7 @@
         <v>2028</v>
       </c>
       <c r="T456" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="457" spans="1:20" x14ac:dyDescent="0.25">
@@ -31468,7 +31459,7 @@
         <v>2362</v>
       </c>
       <c r="T458" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="459" spans="1:20" x14ac:dyDescent="0.25">
@@ -31680,7 +31671,7 @@
         <v>2102</v>
       </c>
       <c r="T462" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="463" spans="1:20" x14ac:dyDescent="0.25">
@@ -31830,7 +31821,7 @@
         <v>2346</v>
       </c>
       <c r="T465" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="466" spans="1:20" x14ac:dyDescent="0.25">
@@ -31880,7 +31871,7 @@
         <v>2235</v>
       </c>
       <c r="T466" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="467" spans="1:20" x14ac:dyDescent="0.25">
@@ -31930,7 +31921,7 @@
         <v>2015</v>
       </c>
       <c r="T467" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="468" spans="1:20" x14ac:dyDescent="0.25">
@@ -31983,7 +31974,7 @@
         <v>2080</v>
       </c>
       <c r="T468" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="469" spans="1:20" x14ac:dyDescent="0.25">
@@ -32033,7 +32024,7 @@
         <v>1983</v>
       </c>
       <c r="T469" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="470" spans="1:20" x14ac:dyDescent="0.25">
@@ -32233,7 +32224,7 @@
         <v>1987</v>
       </c>
       <c r="T473" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="474" spans="1:20" x14ac:dyDescent="0.25">
@@ -32333,7 +32324,7 @@
         <v>2365</v>
       </c>
       <c r="T475" t="s">
-        <v>2428</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="476" spans="1:20" x14ac:dyDescent="0.25">
@@ -32383,7 +32374,7 @@
         <v>2168</v>
       </c>
       <c r="T476" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="477" spans="1:20" x14ac:dyDescent="0.25">
@@ -32436,7 +32427,7 @@
         <v>2080</v>
       </c>
       <c r="T477" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="478" spans="1:20" x14ac:dyDescent="0.25">
@@ -32689,7 +32680,7 @@
         <v>2255</v>
       </c>
       <c r="T482" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="483" spans="1:25" x14ac:dyDescent="0.25">
@@ -32845,7 +32836,7 @@
         <v>2019</v>
       </c>
       <c r="T485" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="486" spans="1:25" x14ac:dyDescent="0.25">
@@ -32945,7 +32936,7 @@
         <v>2147</v>
       </c>
       <c r="T487" t="s">
-        <v>2407</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="488" spans="1:25" x14ac:dyDescent="0.25">
@@ -33151,7 +33142,7 @@
         <v>799</v>
       </c>
       <c r="T491" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="492" spans="1:25" x14ac:dyDescent="0.25">
@@ -33171,7 +33162,7 @@
         <v>354</v>
       </c>
       <c r="F492" t="s">
-        <v>2460</v>
+        <v>2457</v>
       </c>
       <c r="H492" t="s">
         <v>1498</v>
@@ -33301,7 +33292,7 @@
         <v>2147</v>
       </c>
       <c r="T494" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="495" spans="1:25" x14ac:dyDescent="0.25">
@@ -33354,13 +33345,13 @@
         <v>2020</v>
       </c>
       <c r="V495" t="s">
-        <v>2434</v>
+        <v>2431</v>
       </c>
       <c r="W495" t="s">
         <v>1991</v>
       </c>
       <c r="X495" t="s">
-        <v>2456</v>
+        <v>2453</v>
       </c>
       <c r="Y495" t="s">
         <v>2026</v>
@@ -33519,7 +33510,7 @@
         <v>2325</v>
       </c>
       <c r="T498" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="499" spans="1:21" x14ac:dyDescent="0.25">
@@ -33675,7 +33666,7 @@
         <v>2335</v>
       </c>
       <c r="T501" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="502" spans="1:21" x14ac:dyDescent="0.25">
@@ -33825,7 +33816,7 @@
         <v>2145</v>
       </c>
       <c r="T504" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="505" spans="1:21" x14ac:dyDescent="0.25">
@@ -33931,7 +33922,7 @@
         <v>2021</v>
       </c>
       <c r="T506" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="507" spans="1:21" x14ac:dyDescent="0.25">
@@ -33984,7 +33975,7 @@
         <v>2022</v>
       </c>
       <c r="T507" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="508" spans="1:21" x14ac:dyDescent="0.25">
@@ -34140,7 +34131,7 @@
         <v>2371</v>
       </c>
       <c r="T510" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="511" spans="1:21" x14ac:dyDescent="0.25">
@@ -34196,7 +34187,7 @@
         <v>2028</v>
       </c>
       <c r="T511" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="512" spans="1:21" x14ac:dyDescent="0.25">
@@ -34249,7 +34240,7 @@
         <v>2246</v>
       </c>
       <c r="T512" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="513" spans="1:21" x14ac:dyDescent="0.25">
@@ -34655,7 +34646,7 @@
         <v>2134</v>
       </c>
       <c r="T520" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="521" spans="1:21" x14ac:dyDescent="0.25">
@@ -34758,7 +34749,7 @@
         <v>2102</v>
       </c>
       <c r="T522" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="523" spans="1:21" x14ac:dyDescent="0.25">
@@ -34958,7 +34949,7 @@
         <v>2031</v>
       </c>
       <c r="T526" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="527" spans="1:21" x14ac:dyDescent="0.25">
@@ -35785,7 +35776,7 @@
         <v>2033</v>
       </c>
       <c r="T542" t="s">
-        <v>2419</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="543" spans="1:21" x14ac:dyDescent="0.25">
@@ -35897,7 +35888,7 @@
         <v>2033</v>
       </c>
       <c r="T544" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="545" spans="1:25" x14ac:dyDescent="0.25">
@@ -36000,7 +35991,7 @@
         <v>2036</v>
       </c>
       <c r="T546" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="547" spans="1:25" x14ac:dyDescent="0.25">
@@ -36212,13 +36203,13 @@
         <v>1970</v>
       </c>
       <c r="V550" t="s">
-        <v>2435</v>
+        <v>2432</v>
       </c>
       <c r="W550" t="s">
-        <v>2457</v>
+        <v>2454</v>
       </c>
       <c r="X550" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
       <c r="Y550" t="s">
         <v>2010</v>
@@ -36427,7 +36418,7 @@
         <v>2346</v>
       </c>
       <c r="T554" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="555" spans="1:25" x14ac:dyDescent="0.25">
@@ -36477,7 +36468,7 @@
         <v>2022</v>
       </c>
       <c r="T555" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="556" spans="1:25" x14ac:dyDescent="0.25">
@@ -36676,12 +36667,6 @@
       <c r="P559" t="s">
         <v>22</v>
       </c>
-      <c r="R559" t="s">
-        <v>2373</v>
-      </c>
-      <c r="S559" t="s">
-        <v>799</v>
-      </c>
       <c r="T559" t="s">
         <v>2041</v>
       </c>
@@ -36729,12 +36714,6 @@
       <c r="P560" t="s">
         <v>145</v>
       </c>
-      <c r="R560" t="s">
-        <v>2374</v>
-      </c>
-      <c r="S560" t="s">
-        <v>799</v>
-      </c>
       <c r="T560" t="s">
         <v>2041</v>
       </c>
@@ -36785,12 +36764,6 @@
       <c r="P561" t="s">
         <v>145</v>
       </c>
-      <c r="R561" t="s">
-        <v>2375</v>
-      </c>
-      <c r="S561" t="s">
-        <v>439</v>
-      </c>
       <c r="T561" t="s">
         <v>2045</v>
       </c>
@@ -36848,7 +36821,7 @@
         <v>2102</v>
       </c>
       <c r="T562" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="563" spans="1:25" x14ac:dyDescent="0.25">
@@ -36942,13 +36915,13 @@
         <v>145</v>
       </c>
       <c r="R564" t="s">
-        <v>2376</v>
+        <v>2373</v>
       </c>
       <c r="S564" t="s">
         <v>2237</v>
       </c>
       <c r="T564" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="565" spans="1:25" x14ac:dyDescent="0.25">
@@ -37048,16 +37021,16 @@
         <v>2234</v>
       </c>
       <c r="S566" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="V566" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
       <c r="W566" t="s">
         <v>2253</v>
       </c>
       <c r="X566" t="s">
-        <v>2458</v>
+        <v>2455</v>
       </c>
       <c r="Y566" t="s">
         <v>1976</v>
@@ -37169,13 +37142,13 @@
         <v>1990</v>
       </c>
       <c r="V568" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
       <c r="W568" t="s">
         <v>2002</v>
       </c>
       <c r="X568" t="s">
-        <v>2459</v>
+        <v>2456</v>
       </c>
       <c r="Y568" t="s">
         <v>2011</v>
@@ -37284,7 +37257,7 @@
         <v>2042</v>
       </c>
       <c r="T570" t="s">
-        <v>2429</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="571" spans="1:25" x14ac:dyDescent="0.25">
@@ -37546,7 +37519,7 @@
         <v>22</v>
       </c>
       <c r="R575" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
       <c r="S575" t="s">
         <v>612</v>
@@ -37599,10 +37572,10 @@
         <v>2164</v>
       </c>
       <c r="S576" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
       <c r="T576" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="577" spans="1:20" x14ac:dyDescent="0.25">
@@ -37696,7 +37669,7 @@
         <v>145</v>
       </c>
       <c r="R578" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
       <c r="S578" t="s">
         <v>2036</v>
@@ -37752,7 +37725,7 @@
         <v>2172</v>
       </c>
       <c r="T579" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="580" spans="1:20" x14ac:dyDescent="0.25">
@@ -37796,7 +37769,7 @@
         <v>2078</v>
       </c>
       <c r="T580" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="581" spans="1:20" x14ac:dyDescent="0.25">
@@ -37893,7 +37866,7 @@
         <v>1738</v>
       </c>
       <c r="R582" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
       <c r="S582" t="s">
         <v>2049</v>
@@ -37946,13 +37919,13 @@
         <v>1743</v>
       </c>
       <c r="R583" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
       <c r="S583" t="s">
         <v>2050</v>
       </c>
       <c r="T583" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="584" spans="1:20" x14ac:dyDescent="0.25">
@@ -37999,10 +37972,10 @@
         <v>1743</v>
       </c>
       <c r="R584" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
       <c r="S584" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="T584" t="s">
         <v>2344</v>
@@ -38214,7 +38187,7 @@
         <v>2345</v>
       </c>
       <c r="T588" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="589" spans="1:20" x14ac:dyDescent="0.25">
@@ -38308,7 +38281,7 @@
         <v>22</v>
       </c>
       <c r="R590" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
       <c r="S590" t="s">
         <v>2097</v>
@@ -38358,7 +38331,7 @@
         <v>22</v>
       </c>
       <c r="R591" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
       <c r="S591" t="s">
         <v>2095</v>
@@ -38467,7 +38440,7 @@
         <v>2124</v>
       </c>
       <c r="T593" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="594" spans="1:20" x14ac:dyDescent="0.25">
@@ -38614,7 +38587,7 @@
         <v>2057</v>
       </c>
       <c r="S596" t="s">
-        <v>2387</v>
+        <v>2384</v>
       </c>
       <c r="T596" t="s">
         <v>2289</v>
